--- a/TestBetweenSubject.xlsx
+++ b/TestBetweenSubject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisis\Github\AIRES_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB8BE29-8F5B-4CA8-8FBD-16D163EC0BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3476E9-5D19-456F-91A6-B9002224029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="3915" windowWidth="19875" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,8 +126,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -179,15 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +491,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:O4"/>
+      <selection activeCell="F8" sqref="F8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +499,7 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="15" max="15" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -646,43 +645,43 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.6637575372897494</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0.56289606271551518</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>0.12564493945444249</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>0.60920241253817253</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4">
         <v>12.6</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4">
         <v>78.599999999999994</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>23</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4">
         <v>23.2</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" t="s">
         <v>22</v>
       </c>
     </row>
